--- a/data/trans_bre/P32C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-64,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 1,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,23; 1,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 154,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,37 +720,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; -1,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; -0,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -1,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,46%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 2,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 215,27</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-55,14%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-88,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,94%</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 2,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,29; -1,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 0,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -15,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>279,37%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 13,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; -0,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,15%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 3,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 4,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1121,48</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,81%</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; -0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; -0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; -0,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 2,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 84,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 40,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,93; 217,44</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1368,32 +1368,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 2,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 0,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 1,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; -0,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 324,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 150,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,5%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,94%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,82%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 0,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; -1,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; -0,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,91; 16,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -57,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,23; -26,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,55; 104,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,65; -2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-46,46%</t>
+          <t>-44,85%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,42</t>
+          <t>-3,15; 1,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 215,27</t>
+          <t>-100,0; 202,94</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-88,0%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-45,94%</t>
+          <t>-44,14%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -1,57</t>
+          <t>-5,39; -0,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,98</t>
+          <t>-2,72; 1,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -15,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>25,25%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,39</t>
+          <t>-2,36; 4,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1121,48</t>
+          <t>-100,0; 1132,64</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-28,81%</t>
+          <t>-48,01%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,57</t>
+          <t>-3,72; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-98,93; 217,44</t>
+          <t>-100,0; 113,81</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,23</t>
+          <t>-2,76; -0,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-16,82%</t>
+          <t>-24,41%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,07</t>
+          <t>-1,03; 0,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-65,55; 104,62</t>
+          <t>-72,61; 78,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 1,53</t>
+          <t>-6,79; 2,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; -2,02</t>
+          <t>-10,35; -1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,44</t>
+          <t>-6,96; 1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,99</t>
+          <t>-100,0; -8,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 154,35</t>
+          <t>-100,0; 304,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -1,23</t>
+          <t>-5,33; -0,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -0,59</t>
+          <t>-3,42; -0,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -1,19</t>
+          <t>-5,64; -1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,0</t>
+          <t>-2,48; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,6</t>
+          <t>-1,79; 2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,55</t>
+          <t>-3,19; 1,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 202,94</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,22</t>
+          <t>-4,16; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,54</t>
+          <t>-4,85; -0,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,02</t>
+          <t>-2,91; 0,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 706,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 13,68</t>
+          <t>-1,83; 14,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -0,71</t>
+          <t>-6,39; -0,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,16</t>
+          <t>-1,92; 2,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,0</t>
+          <t>-3,1; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,36</t>
+          <t>-2,26; 4,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1132,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; -0,97</t>
+          <t>-4,91; -0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,04</t>
+          <t>-3,4; -0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -0,58</t>
+          <t>-3,96; -0,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,45</t>
+          <t>-4,06; 1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,0</t>
+          <t>-100,0; 47,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 113,81</t>
+          <t>-100,0; 118,14</t>
         </is>
       </c>
     </row>
@@ -1368,32 +1368,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,13</t>
+          <t>-1,72; 1,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,24</t>
+          <t>-2,92; 0,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,72</t>
+          <t>-1,4; 1,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,76; -0,24</t>
+          <t>-2,78; -0,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 324,73</t>
+          <t>-100,0; 260,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 150,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,09</t>
+          <t>-1,84; 0,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -1,03</t>
+          <t>-2,42; -1,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; -0,4</t>
+          <t>-1,72; -0,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,76</t>
+          <t>-1,03; 0,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-78,91; 16,45</t>
+          <t>-81,15; 8,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -57,08</t>
+          <t>-96,28; -53,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-88,23; -26,25</t>
+          <t>-86,06; -15,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-72,61; 78,45</t>
+          <t>-69,78; 93,38</t>
         </is>
       </c>
     </row>
